--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alex Tyson Carey</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1219,7 +1284,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1267,7 +1331,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1471,7 +1534,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -1479,7 +1541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1531,7 +1593,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1583,7 +1645,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,7 +1697,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1687,7 +1749,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1947,7 +2009,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1987,7 +2049,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2047,7 +2108,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,7 +2160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2151,7 +2212,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2203,7 +2264,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2255,7 +2316,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2307,7 +2368,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2359,7 +2420,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2411,7 +2472,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2463,7 +2524,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2515,7 +2576,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2555,7 +2616,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -2563,7 +2623,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2615,7 +2675,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2667,7 +2727,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2719,7 +2779,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2771,7 +2831,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2823,7 +2883,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2875,7 +2935,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2927,7 +2987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2979,7 +3039,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3031,7 +3091,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3083,7 +3143,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3135,7 +3195,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3187,7 +3247,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3239,7 +3299,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3291,7 +3351,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3343,7 +3403,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3395,7 +3455,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3447,7 +3507,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3499,7 +3559,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3551,7 +3611,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3603,7 +3663,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,7 +3715,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3695,7 +3755,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -3703,7 +3762,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3755,7 +3814,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3786,6 +3845,533 @@
       <c r="J65" t="inlineStr">
         <is>
           <t>46</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.48%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.44%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.00%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15.73%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.13%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4726.xlsx
@@ -3859,7 +3859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3902,13 +3902,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3918,27 +3932,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.28%</t>
-        </is>
-      </c>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3948,13 +3948,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.46%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3964,27 +3978,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.67%</t>
-        </is>
-      </c>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3994,13 +3994,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.35%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4010,7 +4024,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4023,12 +4037,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.94%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4040,13 +4054,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4056,27 +4084,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.48%</t>
-        </is>
-      </c>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4086,11 +4100,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4104,7 +4118,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.44%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4116,27 +4130,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.98%</t>
-        </is>
-      </c>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4146,11 +4146,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.00%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4176,15 +4176,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.84%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4206,13 +4206,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.85%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4222,11 +4236,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4240,7 +4254,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.15%</t>
+          <t>1.10%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4252,27 +4266,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15.73%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4282,10 +4284,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -4298,13 +4302,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.40%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4314,7 +4332,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -4330,14 +4348,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -4348,28 +4374,1130 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15.63%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17.41%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.22%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.98%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.63%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.24%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.30%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>17.39%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.75%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13.15%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.59%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7.48%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.44%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.00%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15.73%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B65" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>14.13%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
